--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://psa.gov.ph/classification/psgc</t>
+    <t>urn://example.com/ph-core/fhir/CodeSystem/PSGC</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-psgc-region.xlsx
+++ b/ValueSet-vs-psgc-region.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
